--- a/TombOfTheMask_clone-bin/map/map_2.xlsx
+++ b/TombOfTheMask_clone-bin/map/map_2.xlsx
@@ -460,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3192,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="S42" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T42" s="5">
         <v>1</v>

--- a/TombOfTheMask_clone-bin/map/map_2.xlsx
+++ b/TombOfTheMask_clone-bin/map/map_2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="26">
   <si>
     <t>첫번째 가시 인덱스 : 339</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -110,15 +110,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>17/22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>17/24</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>17/22</t>
+    <t>17/22/24/2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>17/22/24</t>
+    <t>17/22/24/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -460,13 +520,14 @@
   </sheetPr>
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="25" width="8.5703125" customWidth="1"/>
+    <col min="1" max="21" width="12.7109375" customWidth="1"/>
+    <col min="22" max="25" width="8.5703125" customWidth="1"/>
     <col min="26" max="30" width="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -762,8 +823,8 @@
       <c r="J5" s="6">
         <v>6</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>9</v>
+      <c r="K5" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>7</v>
@@ -836,8 +897,8 @@
       <c r="M6" s="6">
         <v>6</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>9</v>
+      <c r="N6" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>7</v>
@@ -913,8 +974,8 @@
       <c r="Q7" s="6">
         <v>6</v>
       </c>
-      <c r="R7" s="7" t="s">
-        <v>9</v>
+      <c r="R7" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="S7" s="8" t="s">
         <v>7</v>
@@ -1115,7 +1176,7 @@
         <v>7</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="U10" s="6">
         <v>3</v>
@@ -1146,14 +1207,14 @@
       <c r="H11" s="4">
         <v>4</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>9</v>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="L11" s="4">
         <v>5</v>
@@ -1180,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="U11" s="6">
         <v>3</v>
@@ -1245,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="U12" s="6">
         <v>3</v>
@@ -1307,10 +1368,10 @@
         <v>6</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="U13" s="6">
         <v>3</v>
@@ -1419,13 +1480,13 @@
         <v>17</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P15">
         <v>17</v>
@@ -1481,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16" s="4">
         <v>7</v>
@@ -1493,7 +1554,7 @@
         <v>6</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="4">
         <v>5</v>
@@ -1524,11 +1585,11 @@
       <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>9</v>
+      <c r="E17" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="4">
         <v>5</v>
@@ -1546,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M17" s="4">
         <v>3</v>
@@ -1558,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q17">
         <v>17</v>
@@ -1611,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M18" s="4">
         <v>3</v>
@@ -1623,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q18">
         <v>17</v>
@@ -1676,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M19" s="4">
         <v>5</v>
@@ -1688,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q19">
         <v>17</v>
@@ -1710,8 +1771,8 @@
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
+      <c r="B20" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C20">
         <v>17</v>
@@ -1732,7 +1793,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" s="4">
         <v>5</v>
@@ -1744,13 +1805,13 @@
         <v>17</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P20">
         <v>17</v>
@@ -1797,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J21">
         <v>17</v>
@@ -1868,10 +1929,10 @@
         <v>6</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M22" s="4">
         <v>3</v>
@@ -1888,8 +1949,8 @@
       <c r="Q22">
         <v>17</v>
       </c>
-      <c r="R22" s="7" t="s">
-        <v>9</v>
+      <c r="R22" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="S22" s="4">
         <v>3</v>
@@ -2130,8 +2191,8 @@
       <c r="K26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>9</v>
+      <c r="L26" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="M26" s="4">
         <v>5</v>
@@ -2175,7 +2236,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="9">
         <v>7</v>
@@ -2275,8 +2336,8 @@
       <c r="P28">
         <v>17</v>
       </c>
-      <c r="Q28" s="7" t="s">
-        <v>9</v>
+      <c r="Q28" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="R28" s="4">
         <v>7</v>
@@ -2512,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J32" s="4">
         <v>3</v>
@@ -2858,7 +2919,7 @@
         <v>7</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q37" s="5">
         <v>7</v>
@@ -2870,7 +2931,7 @@
         <v>6</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U37" s="5">
         <v>3</v>
@@ -2923,7 +2984,7 @@
         <v>7</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q38" s="5">
         <v>3</v>
@@ -2935,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U38" s="5">
         <v>3</v>
@@ -3000,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U39" s="5">
         <v>3</v>
@@ -3065,7 +3126,7 @@
         <v>4</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U40" s="5">
         <v>3</v>
@@ -3143,8 +3204,8 @@
       <c r="B42" s="4">
         <v>2</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>9</v>
+      <c r="C42" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D42">
         <v>17</v>
@@ -3189,7 +3250,7 @@
         <v>7</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S42" s="5">
         <v>7</v>
@@ -3251,7 +3312,7 @@
         <v>7</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R43" s="5">
         <v>7</v>
@@ -3289,19 +3350,19 @@
         <v>7</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>9</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>7</v>
@@ -3313,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q44" s="5">
         <v>7</v>

--- a/TombOfTheMask_clone-bin/map/map_2.xlsx
+++ b/TombOfTheMask_clone-bin/map/map_2.xlsx
@@ -19,98 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="26">
-  <si>
-    <t>첫번째 가시 인덱스 : 339</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번째 가시 인덱스 : 194</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은코인 : 78</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>큰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>코인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 5</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>플레이어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 4,5</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/20</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="27">
   <si>
     <t>17/26</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>17/23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17/22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -179,6 +94,107 @@
   </si>
   <si>
     <t>17/22/24/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24/3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/22/24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/24</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>가시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 50</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은코인 : 179</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>큰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>코인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 54</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>플레이어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 9,50</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -283,9 +299,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,10 +531,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB57"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U52" sqref="A1:U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -621,8 +634,8 @@
       <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
+      <c r="I2" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="J2" s="4">
         <v>3</v>
@@ -686,8 +699,8 @@
       <c r="H3" s="6">
         <v>2</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>7</v>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="J3" s="6">
         <v>5</v>
@@ -752,14 +765,14 @@
       <c r="H4" s="6">
         <v>2</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>7</v>
+      <c r="I4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="L4" s="6">
         <v>5</v>
@@ -823,17 +836,17 @@
       <c r="J5" s="6">
         <v>6</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>7</v>
+      <c r="K5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="O5" s="6">
         <v>5</v>
@@ -897,20 +910,20 @@
       <c r="M6" s="6">
         <v>6</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>7</v>
+      <c r="N6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="S6" s="6">
         <v>5</v>
@@ -974,11 +987,11 @@
       <c r="Q7" s="6">
         <v>6</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>7</v>
+      <c r="R7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="T7" s="6">
         <v>3</v>
@@ -1042,8 +1055,8 @@
       <c r="R8" s="6">
         <v>6</v>
       </c>
-      <c r="S8" s="8" t="s">
-        <v>7</v>
+      <c r="S8" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="T8" s="6">
         <v>3</v>
@@ -1107,8 +1120,8 @@
       <c r="R9" s="6">
         <v>2</v>
       </c>
-      <c r="S9" s="8" t="s">
-        <v>7</v>
+      <c r="S9" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="T9" s="6">
         <v>5</v>
@@ -1172,11 +1185,11 @@
       <c r="R10" s="6">
         <v>4</v>
       </c>
-      <c r="S10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>21</v>
+      <c r="S10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="U10" s="6">
         <v>3</v>
@@ -1207,14 +1220,14 @@
       <c r="H11" s="4">
         <v>4</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>23</v>
+      <c r="I11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="L11" s="4">
         <v>5</v>
@@ -1231,17 +1244,17 @@
       <c r="P11" s="4">
         <v>4</v>
       </c>
-      <c r="Q11">
-        <v>17</v>
-      </c>
-      <c r="R11">
-        <v>17</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>21</v>
+      <c r="Q11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="U11" s="6">
         <v>3</v>
@@ -1257,56 +1270,56 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>21</v>
+      <c r="D12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="U12" s="6">
         <v>3</v>
@@ -1319,11 +1332,11 @@
       <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>17</v>
+      <c r="C13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="E13" s="4">
         <v>7</v>
@@ -1334,8 +1347,8 @@
       <c r="G13" s="4">
         <v>6</v>
       </c>
-      <c r="H13">
-        <v>17</v>
+      <c r="H13" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="I13" s="4">
         <v>7</v>
@@ -1367,11 +1380,11 @@
       <c r="R13" s="6">
         <v>6</v>
       </c>
-      <c r="S13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>21</v>
+      <c r="S13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="U13" s="6">
         <v>3</v>
@@ -1381,11 +1394,11 @@
       <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>17</v>
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D14" s="4">
         <v>7</v>
@@ -1446,8 +1459,8 @@
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>7</v>
+      <c r="B15" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C15" s="4">
         <v>7</v>
@@ -1476,20 +1489,20 @@
       <c r="K15" s="4">
         <v>2</v>
       </c>
-      <c r="L15">
-        <v>17</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15">
-        <v>17</v>
+      <c r="L15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="Q15" s="4">
         <v>3</v>
@@ -1511,8 +1524,8 @@
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>7</v>
+      <c r="B16" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
@@ -1541,8 +1554,8 @@
       <c r="K16" s="4">
         <v>2</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>11</v>
+      <c r="L16" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="M16" s="4">
         <v>7</v>
@@ -1553,8 +1566,8 @@
       <c r="O16" s="4">
         <v>6</v>
       </c>
-      <c r="P16" s="11" t="s">
-        <v>17</v>
+      <c r="P16" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="Q16" s="4">
         <v>5</v>
@@ -1576,8 +1589,8 @@
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>7</v>
+      <c r="B17" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
@@ -1585,11 +1598,11 @@
       <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>10</v>
+      <c r="E17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="G17" s="4">
         <v>5</v>
@@ -1598,16 +1611,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
         <v>9</v>
       </c>
-      <c r="J17">
-        <v>17</v>
-      </c>
       <c r="K17" s="4">
         <v>2</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>12</v>
+      <c r="L17" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="M17" s="4">
         <v>3</v>
@@ -1618,11 +1631,11 @@
       <c r="O17" s="4">
         <v>2</v>
       </c>
-      <c r="P17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17">
-        <v>17</v>
+      <c r="P17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="R17" s="4">
         <v>3</v>
@@ -1641,8 +1654,8 @@
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>7</v>
+      <c r="B18" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C18" s="4">
         <v>3</v>
@@ -1650,29 +1663,29 @@
       <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-      <c r="G18">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <v>17</v>
-      </c>
-      <c r="I18" s="4">
-        <v>5</v>
+      <c r="E18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J18" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K18" s="4">
         <v>2</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>11</v>
+      <c r="L18" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="M18" s="4">
         <v>3</v>
@@ -1683,11 +1696,11 @@
       <c r="O18" s="4">
         <v>2</v>
       </c>
-      <c r="P18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18">
-        <v>17</v>
+      <c r="P18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="R18" s="4">
         <v>3</v>
@@ -1706,8 +1719,8 @@
       <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>7</v>
+      <c r="B19" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
@@ -1715,8 +1728,8 @@
       <c r="D19" s="4">
         <v>4</v>
       </c>
-      <c r="E19">
-        <v>17</v>
+      <c r="E19" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="F19" s="4">
         <v>7</v>
@@ -1724,11 +1737,11 @@
       <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="H19">
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <v>17</v>
+      <c r="H19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J19" s="4">
         <v>3</v>
@@ -1736,8 +1749,8 @@
       <c r="K19" s="4">
         <v>2</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>11</v>
+      <c r="L19" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="M19" s="4">
         <v>5</v>
@@ -1748,11 +1761,11 @@
       <c r="O19" s="4">
         <v>4</v>
       </c>
-      <c r="P19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19">
-        <v>17</v>
+      <c r="P19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="R19" s="4">
         <v>3</v>
@@ -1771,17 +1784,17 @@
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>17</v>
+      <c r="B20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="F20" s="4">
         <v>3</v>
@@ -1792,8 +1805,8 @@
       <c r="H20" s="4">
         <v>6</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>8</v>
+      <c r="I20" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="J20" s="4">
         <v>5</v>
@@ -1801,23 +1814,23 @@
       <c r="K20" s="4">
         <v>4</v>
       </c>
-      <c r="L20">
-        <v>17</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20">
-        <v>17</v>
-      </c>
-      <c r="Q20">
-        <v>17</v>
+      <c r="L20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="R20" s="4">
         <v>3</v>
@@ -1834,40 +1847,40 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
         <v>11</v>
       </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>10</v>
-      </c>
       <c r="G21">
         <v>17</v>
       </c>
       <c r="H21" s="4">
         <v>2</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21">
-        <v>17</v>
-      </c>
-      <c r="K21">
-        <v>17</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
+      <c r="I21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="M21" s="6">
         <v>7</v>
@@ -1881,8 +1894,8 @@
       <c r="P21" s="6">
         <v>6</v>
       </c>
-      <c r="Q21">
-        <v>17</v>
+      <c r="Q21" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="R21" s="4">
         <v>5</v>
@@ -1928,45 +1941,45 @@
       <c r="J22" s="4">
         <v>6</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="4">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>17</v>
+      </c>
+      <c r="O22">
+        <v>17</v>
+      </c>
+      <c r="P22" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="4">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>17</v>
+      </c>
+      <c r="U22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="4">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <v>17</v>
-      </c>
-      <c r="O22">
-        <v>17</v>
-      </c>
-      <c r="P22" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q22">
-        <v>17</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="S22" s="4">
-        <v>3</v>
-      </c>
-      <c r="T22">
-        <v>17</v>
-      </c>
-      <c r="U22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>8</v>
-      </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>0</v>
       </c>
       <c r="C23" s="4">
@@ -2014,8 +2027,8 @@
       <c r="Q23" s="4">
         <v>6</v>
       </c>
-      <c r="R23" s="8" t="s">
-        <v>7</v>
+      <c r="R23" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="S23" s="4">
         <v>3</v>
@@ -2031,11 +2044,11 @@
       <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>7</v>
+      <c r="B24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -2079,8 +2092,8 @@
       <c r="Q24" s="4">
         <v>2</v>
       </c>
-      <c r="R24" s="8" t="s">
-        <v>7</v>
+      <c r="R24" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="S24" s="4">
         <v>3</v>
@@ -2096,14 +2109,14 @@
       <c r="A25" s="4">
         <v>2</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>5</v>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>19</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -2144,8 +2157,8 @@
       <c r="Q25" s="4">
         <v>2</v>
       </c>
-      <c r="R25" s="8" t="s">
-        <v>7</v>
+      <c r="R25" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="S25" s="4">
         <v>3</v>
@@ -2161,38 +2174,38 @@
       <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>11</v>
+      <c r="B26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="M26" s="4">
         <v>5</v>
@@ -2209,8 +2222,8 @@
       <c r="Q26" s="4">
         <v>4</v>
       </c>
-      <c r="R26" s="8" t="s">
-        <v>7</v>
+      <c r="R26" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="S26" s="4">
         <v>3</v>
@@ -2226,19 +2239,19 @@
       <c r="A27" s="4">
         <v>2</v>
       </c>
-      <c r="B27">
-        <v>17</v>
-      </c>
-      <c r="C27">
-        <v>17</v>
-      </c>
-      <c r="D27">
-        <v>17</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="B27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8">
         <v>7</v>
       </c>
       <c r="G27" s="4">
@@ -2256,14 +2269,14 @@
       <c r="K27" s="4">
         <v>6</v>
       </c>
-      <c r="L27">
-        <v>17</v>
-      </c>
-      <c r="M27">
-        <v>17</v>
-      </c>
-      <c r="N27">
-        <v>17</v>
+      <c r="L27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="O27" s="4">
         <v>5</v>
@@ -2271,11 +2284,11 @@
       <c r="P27" s="4">
         <v>4</v>
       </c>
-      <c r="Q27">
-        <v>17</v>
-      </c>
-      <c r="R27">
-        <v>17</v>
+      <c r="Q27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="S27" s="4">
         <v>3</v>
@@ -2294,8 +2307,8 @@
       <c r="B28" s="4">
         <v>6</v>
       </c>
-      <c r="C28">
-        <v>17</v>
+      <c r="C28" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D28" s="4">
         <v>7</v>
@@ -2327,17 +2340,17 @@
       <c r="M28" s="4">
         <v>6</v>
       </c>
-      <c r="N28">
-        <v>17</v>
-      </c>
-      <c r="O28">
-        <v>17</v>
-      </c>
-      <c r="P28">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>11</v>
+      <c r="N28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="R28" s="4">
         <v>7</v>
@@ -2359,8 +2372,8 @@
       <c r="B29" s="4">
         <v>2</v>
       </c>
-      <c r="C29">
-        <v>17</v>
+      <c r="C29" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D29" s="4">
         <v>3</v>
@@ -2424,8 +2437,8 @@
       <c r="B30" s="4">
         <v>2</v>
       </c>
-      <c r="C30">
-        <v>17</v>
+      <c r="C30" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
@@ -2439,11 +2452,11 @@
       <c r="G30" s="4">
         <v>2</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>7</v>
+      <c r="H30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J30" s="4">
         <v>3</v>
@@ -2489,8 +2502,8 @@
       <c r="B31" s="4">
         <v>2</v>
       </c>
-      <c r="C31">
-        <v>17</v>
+      <c r="C31" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D31" s="4">
         <v>5</v>
@@ -2504,11 +2517,11 @@
       <c r="G31" s="4">
         <v>4</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>7</v>
+      <c r="H31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J31" s="4">
         <v>3</v>
@@ -2554,26 +2567,26 @@
       <c r="B32" s="4">
         <v>2</v>
       </c>
-      <c r="C32">
-        <v>17</v>
-      </c>
-      <c r="D32">
-        <v>17</v>
-      </c>
-      <c r="E32">
-        <v>17</v>
-      </c>
-      <c r="F32">
-        <v>17</v>
-      </c>
-      <c r="G32">
-        <v>17</v>
-      </c>
-      <c r="H32">
-        <v>17</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>15</v>
+      <c r="C32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="J32" s="4">
         <v>3</v>
@@ -2634,8 +2647,8 @@
       <c r="G33" s="4">
         <v>6</v>
       </c>
-      <c r="H33">
-        <v>17</v>
+      <c r="H33" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I33" s="5">
         <v>7</v>
@@ -2699,8 +2712,8 @@
       <c r="G34" s="4">
         <v>2</v>
       </c>
-      <c r="H34">
-        <v>17</v>
+      <c r="H34" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I34" s="4">
         <v>3</v>
@@ -2764,8 +2777,8 @@
       <c r="G35" s="4">
         <v>4</v>
       </c>
-      <c r="H35">
-        <v>17</v>
+      <c r="H35" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I35" s="4">
         <v>3</v>
@@ -2794,14 +2807,14 @@
       <c r="Q35" s="5">
         <v>4</v>
       </c>
-      <c r="R35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="S35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="T35" s="8" t="s">
-        <v>7</v>
+      <c r="R35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="U35" s="5">
         <v>3</v>
@@ -2820,17 +2833,17 @@
       <c r="D36" s="4">
         <v>2</v>
       </c>
-      <c r="E36">
-        <v>17</v>
-      </c>
-      <c r="F36">
-        <v>17</v>
-      </c>
-      <c r="G36">
-        <v>17</v>
-      </c>
-      <c r="H36">
-        <v>17</v>
+      <c r="E36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I36" s="4">
         <v>3</v>
@@ -2850,23 +2863,23 @@
       <c r="N36" s="5">
         <v>2</v>
       </c>
-      <c r="O36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>7</v>
+      <c r="O36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="S36">
         <v>17</v>
       </c>
-      <c r="T36" s="8" t="s">
-        <v>7</v>
+      <c r="T36" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="U36" s="5">
         <v>3</v>
@@ -2885,8 +2898,8 @@
       <c r="D37" s="4">
         <v>4</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>7</v>
+      <c r="E37" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="F37" s="4">
         <v>7</v>
@@ -2915,11 +2928,11 @@
       <c r="N37" s="5">
         <v>4</v>
       </c>
-      <c r="O37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P37" s="11" t="s">
-        <v>18</v>
+      <c r="O37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="Q37" s="5">
         <v>7</v>
@@ -2930,8 +2943,8 @@
       <c r="S37" s="5">
         <v>6</v>
       </c>
-      <c r="T37" s="11" t="s">
-        <v>19</v>
+      <c r="T37" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="U37" s="5">
         <v>3</v>
@@ -2944,14 +2957,14 @@
       <c r="B38" s="4">
         <v>2</v>
       </c>
-      <c r="C38">
-        <v>17</v>
-      </c>
-      <c r="D38">
-        <v>17</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>7</v>
+      <c r="C38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="F38" s="4">
         <v>3</v>
@@ -2974,17 +2987,17 @@
       <c r="L38" s="5">
         <v>2</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P38" s="11" t="s">
-        <v>18</v>
+      <c r="M38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="Q38" s="5">
         <v>3</v>
@@ -2995,8 +3008,8 @@
       <c r="S38" s="5">
         <v>2</v>
       </c>
-      <c r="T38" s="11" t="s">
-        <v>19</v>
+      <c r="T38" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="U38" s="5">
         <v>3</v>
@@ -3009,8 +3022,8 @@
       <c r="B39" s="4">
         <v>2</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>7</v>
+      <c r="C39" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D39" s="4">
         <v>7</v>
@@ -3039,8 +3052,8 @@
       <c r="L39" s="5">
         <v>4</v>
       </c>
-      <c r="M39" s="8" t="s">
-        <v>7</v>
+      <c r="M39" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="N39" s="5">
         <v>7</v>
@@ -3060,8 +3073,8 @@
       <c r="S39" s="5">
         <v>2</v>
       </c>
-      <c r="T39" s="11" t="s">
-        <v>19</v>
+      <c r="T39" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="U39" s="5">
         <v>3</v>
@@ -3074,8 +3087,8 @@
       <c r="B40" s="4">
         <v>2</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>7</v>
+      <c r="C40" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D40" s="4">
         <v>3</v>
@@ -3095,17 +3108,17 @@
       <c r="I40" s="5">
         <v>2</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>7</v>
+      <c r="J40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="N40" s="5">
         <v>3</v>
@@ -3125,8 +3138,8 @@
       <c r="S40" s="5">
         <v>4</v>
       </c>
-      <c r="T40" s="11" t="s">
-        <v>19</v>
+      <c r="T40" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="U40" s="5">
         <v>3</v>
@@ -3139,8 +3152,8 @@
       <c r="B41" s="4">
         <v>2</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>7</v>
+      <c r="C41" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D41" s="4">
         <v>5</v>
@@ -3160,8 +3173,8 @@
       <c r="I41" s="5">
         <v>2</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>7</v>
+      <c r="J41" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="K41" s="5">
         <v>7</v>
@@ -3184,14 +3197,14 @@
       <c r="Q41" s="5">
         <v>4</v>
       </c>
-      <c r="R41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>7</v>
+      <c r="R41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="U41" s="5">
         <v>3</v>
@@ -3204,11 +3217,11 @@
       <c r="B42" s="4">
         <v>2</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42">
-        <v>17</v>
+      <c r="C42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="E42" s="4">
         <v>3</v>
@@ -3225,8 +3238,8 @@
       <c r="I42" s="5">
         <v>4</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>7</v>
+      <c r="J42" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="K42" s="5">
         <v>5</v>
@@ -3246,11 +3259,11 @@
       <c r="P42" s="5">
         <v>4</v>
       </c>
-      <c r="Q42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R42" s="11" t="s">
-        <v>13</v>
+      <c r="Q42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="S42" s="5">
         <v>7</v>
@@ -3272,8 +3285,8 @@
       <c r="C43" s="4">
         <v>6</v>
       </c>
-      <c r="D43">
-        <v>17</v>
+      <c r="D43" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="E43" s="4">
         <v>5</v>
@@ -3284,20 +3297,20 @@
       <c r="G43" s="5">
         <v>4</v>
       </c>
-      <c r="H43">
-        <v>17</v>
-      </c>
-      <c r="I43">
-        <v>17</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43">
-        <v>17</v>
-      </c>
-      <c r="L43">
-        <v>17</v>
+      <c r="H43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="M43" s="5">
         <v>5</v>
@@ -3308,11 +3321,11 @@
       <c r="O43" s="5">
         <v>4</v>
       </c>
-      <c r="P43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q43" s="11" t="s">
-        <v>13</v>
+      <c r="P43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="R43" s="5">
         <v>7</v>
@@ -3337,44 +3350,44 @@
       <c r="C44" s="4">
         <v>2</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>13</v>
+      <c r="M44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="Q44" s="5">
         <v>7</v>
@@ -3420,8 +3433,8 @@
       <c r="I45" s="5">
         <v>6</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>7</v>
+      <c r="J45" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="K45" s="5">
         <v>7</v>
@@ -3485,8 +3498,8 @@
       <c r="I46" s="5">
         <v>2</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>7</v>
+      <c r="J46" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="K46" s="5">
         <v>3</v>
@@ -3550,8 +3563,8 @@
       <c r="I47" s="5">
         <v>2</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>7</v>
+      <c r="J47" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="K47" s="5">
         <v>3</v>
@@ -3615,8 +3628,8 @@
       <c r="I48" s="2">
         <v>18</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>7</v>
+      <c r="J48" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="K48" s="2">
         <v>19</v>
@@ -3677,14 +3690,14 @@
       <c r="H49" s="2">
         <v>18</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>7</v>
+      <c r="I49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="L49" s="2">
         <v>19</v>
@@ -3739,20 +3752,20 @@
       <c r="G50" s="2">
         <v>14</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>7</v>
+      <c r="H50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="M50" s="2">
         <v>15</v>
@@ -3804,20 +3817,20 @@
       <c r="G51" s="2">
         <v>14</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>7</v>
+      <c r="H51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="M51" s="2">
         <v>15</v>
@@ -3920,27 +3933,22 @@
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
